--- a/Code/Results/Cases/Case_2_104/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_104/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.88715728124206</v>
+        <v>9.439655512935477</v>
       </c>
       <c r="C2">
-        <v>8.075642896355776</v>
+        <v>4.910019341749957</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>24.99368386315957</v>
+        <v>23.46257738199308</v>
       </c>
       <c r="F2">
-        <v>34.24380446027013</v>
+        <v>40.68532829646367</v>
       </c>
       <c r="G2">
-        <v>2.094453583934371</v>
+        <v>3.638907270510543</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>12.29566170708712</v>
+        <v>20.55930814898493</v>
       </c>
       <c r="J2">
-        <v>4.561887730706367</v>
+        <v>8.062935027975461</v>
       </c>
       <c r="K2">
-        <v>12.49770423597908</v>
+        <v>9.258557754030093</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.25453347047887</v>
+        <v>21.8838791473291</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.01744704885941</v>
+        <v>9.081829350803954</v>
       </c>
       <c r="C3">
-        <v>7.612515242014408</v>
+        <v>4.664613401182223</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>23.46248222743457</v>
+        <v>23.09693550480246</v>
       </c>
       <c r="F3">
-        <v>32.79465258546385</v>
+        <v>40.54071422970096</v>
       </c>
       <c r="G3">
-        <v>2.099100445176697</v>
+        <v>3.640572480825728</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>12.64252720538656</v>
+        <v>20.68878718183965</v>
       </c>
       <c r="J3">
-        <v>4.6278396848038</v>
+        <v>8.088791244318241</v>
       </c>
       <c r="K3">
-        <v>11.7900773840799</v>
+        <v>9.009781126830694</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.50788004408301</v>
+        <v>22.01107926560912</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.45318456806682</v>
+        <v>8.855420559057553</v>
       </c>
       <c r="C4">
-        <v>7.313708015589468</v>
+        <v>4.506290014138854</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>22.48405942192015</v>
+        <v>22.87475314712606</v>
       </c>
       <c r="F4">
-        <v>31.90524772054356</v>
+        <v>40.46349433230809</v>
       </c>
       <c r="G4">
-        <v>2.102032966402441</v>
+        <v>3.641647646974465</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>12.86428108093363</v>
+        <v>20.77261681874335</v>
       </c>
       <c r="J4">
-        <v>4.669906432560832</v>
+        <v>8.10555254767069</v>
       </c>
       <c r="K4">
-        <v>11.33334001691368</v>
+        <v>8.854211390313131</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.67707363947223</v>
+        <v>22.094291075222</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.21564284457364</v>
+        <v>8.761603321391672</v>
       </c>
       <c r="C5">
-        <v>7.188347049284968</v>
+        <v>4.439893593130865</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22.07596658192773</v>
+        <v>22.78490904697793</v>
       </c>
       <c r="F5">
-        <v>31.54339056415146</v>
+        <v>40.43495796752435</v>
       </c>
       <c r="G5">
-        <v>2.103248520020752</v>
+        <v>3.642099084810587</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>12.9568070515702</v>
+        <v>20.8078681155033</v>
       </c>
       <c r="J5">
-        <v>4.6874444760618</v>
+        <v>8.112606100719018</v>
       </c>
       <c r="K5">
-        <v>11.14168401854374</v>
+        <v>8.790194002216152</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.74927061749661</v>
+        <v>22.12948441686786</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.17574067871377</v>
+        <v>8.745935320322303</v>
       </c>
       <c r="C6">
-        <v>7.167315216124448</v>
+        <v>4.428756507259179</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22.00764529601885</v>
+        <v>22.77003588431531</v>
       </c>
       <c r="F6">
-        <v>31.48335490233002</v>
+        <v>40.43039711043534</v>
       </c>
       <c r="G6">
-        <v>2.103451617982215</v>
+        <v>3.642174850174194</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>12.97230012659497</v>
+        <v>20.81378744654505</v>
       </c>
       <c r="J6">
-        <v>4.690380555177756</v>
+        <v>8.113790833177605</v>
       </c>
       <c r="K6">
-        <v>11.10952783240386</v>
+        <v>8.779529093991986</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.76145017836951</v>
+        <v>22.13540575243602</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.45001175036523</v>
+        <v>8.854161413980329</v>
       </c>
       <c r="C7">
-        <v>7.312031848667996</v>
+        <v>4.505402110533137</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22.47859333200878</v>
+        <v>22.87353850743738</v>
       </c>
       <c r="F7">
-        <v>31.90036454706614</v>
+        <v>40.46309758713959</v>
       </c>
       <c r="G7">
-        <v>2.102049275922664</v>
+        <v>3.641653681320425</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>12.86552023108957</v>
+        <v>20.77308781455507</v>
       </c>
       <c r="J7">
-        <v>4.67014135481729</v>
+        <v>8.105646769986077</v>
       </c>
       <c r="K7">
-        <v>11.33077757664786</v>
+        <v>8.85335042600671</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.67803438258528</v>
+        <v>22.09476050821957</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.59356208270054</v>
+        <v>9.317742521162153</v>
       </c>
       <c r="C8">
-        <v>7.918973181191229</v>
+        <v>4.827013384287024</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>24.47378905804129</v>
+        <v>23.33608968966927</v>
       </c>
       <c r="F8">
-        <v>33.74433278394554</v>
+        <v>40.63307707708967</v>
       </c>
       <c r="G8">
-        <v>2.096039715149543</v>
+        <v>3.639470518251131</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>12.41340762203979</v>
+        <v>20.60305492494781</v>
       </c>
       <c r="J8">
-        <v>4.584301721715134</v>
+        <v>8.071666785345871</v>
       </c>
       <c r="K8">
-        <v>12.2583649318557</v>
+        <v>9.173415737357018</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.33894296493605</v>
+        <v>21.92667634118557</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.59624048388322</v>
+        <v>10.16858339745011</v>
       </c>
       <c r="C9">
-        <v>8.993542339572826</v>
+        <v>5.395516673681337</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>28.07574015682439</v>
+        <v>24.25662527660384</v>
       </c>
       <c r="F9">
-        <v>37.345062617678</v>
+        <v>41.05712989660161</v>
       </c>
       <c r="G9">
-        <v>2.084856561254732</v>
+        <v>3.635605731454915</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>11.59916106366177</v>
+        <v>20.30390161862786</v>
       </c>
       <c r="J9">
-        <v>4.428452645317027</v>
+        <v>8.012034112518556</v>
       </c>
       <c r="K9">
-        <v>13.89895954587052</v>
+        <v>9.77511865052767</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.79125132082154</v>
+        <v>21.63766776754769</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.92247168795343</v>
+        <v>10.75234500536061</v>
       </c>
       <c r="C10">
-        <v>9.71190667730381</v>
+        <v>5.773691579611321</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>30.52764652433455</v>
+        <v>24.93457962370504</v>
       </c>
       <c r="F10">
-        <v>39.96150133986671</v>
+        <v>41.42224654864729</v>
       </c>
       <c r="G10">
-        <v>2.076965529658494</v>
+        <v>3.63301741243591</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>11.0498628008267</v>
+        <v>20.10491679464077</v>
       </c>
       <c r="J10">
-        <v>4.321609504368713</v>
+        <v>7.972457082477563</v>
       </c>
       <c r="K10">
-        <v>14.99419100779978</v>
+        <v>10.19700045143658</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.47441864562417</v>
+        <v>21.45016398502469</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.49467941960471</v>
+        <v>11.00794180813366</v>
       </c>
       <c r="C11">
-        <v>10.02330988759984</v>
+        <v>5.936921419160597</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>31.60432529994689</v>
+        <v>25.24199954107389</v>
       </c>
       <c r="F11">
-        <v>41.14272881318321</v>
+        <v>41.59953047231339</v>
       </c>
       <c r="G11">
-        <v>2.073436399858474</v>
+        <v>3.631893875934849</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>10.81205966582275</v>
+        <v>20.01889142133278</v>
       </c>
       <c r="J11">
-        <v>4.274692781335959</v>
+        <v>7.955365014122992</v>
       </c>
       <c r="K11">
-        <v>15.46850172826047</v>
+        <v>10.38373424028216</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>12.35241492922616</v>
+        <v>21.37027409908191</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.70692569686544</v>
+        <v>11.10322910367878</v>
       </c>
       <c r="C12">
-        <v>10.13903002269978</v>
+        <v>5.997451986701032</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>32.02745224801577</v>
+        <v>25.35816096357625</v>
       </c>
       <c r="F12">
-        <v>41.58859594316485</v>
+        <v>41.66822939411228</v>
       </c>
       <c r="G12">
-        <v>2.072107832889657</v>
+        <v>3.631476129585341</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>10.72390564912781</v>
+        <v>19.98696083657498</v>
       </c>
       <c r="J12">
-        <v>4.257172835739317</v>
+        <v>7.949023275919894</v>
       </c>
       <c r="K12">
-        <v>15.64468156013448</v>
+        <v>10.45364076970644</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.30972891232197</v>
+        <v>21.34080121873465</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.66141134124416</v>
+        <v>11.08277507325545</v>
       </c>
       <c r="C13">
-        <v>10.11420529661085</v>
+        <v>5.9844728246625</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>31.93664510277871</v>
+        <v>25.33315643475486</v>
       </c>
       <c r="F13">
-        <v>41.4926359747604</v>
+        <v>41.65336496400325</v>
       </c>
       <c r="G13">
-        <v>2.07239362950201</v>
+        <v>3.631565756330399</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>10.74280390610544</v>
+        <v>19.99380896959135</v>
       </c>
       <c r="J13">
-        <v>4.260935036832975</v>
+        <v>7.950383278744022</v>
       </c>
       <c r="K13">
-        <v>15.60689047654171</v>
+        <v>10.43862187297733</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>12.31876020750497</v>
+        <v>21.34711401738135</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.51222973455634</v>
+        <v>11.0158116114555</v>
       </c>
       <c r="C14">
-        <v>10.0328742905752</v>
+        <v>5.941927053551114</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>31.63928102238167</v>
+        <v>25.25156187516953</v>
       </c>
       <c r="F14">
-        <v>41.17943996354266</v>
+        <v>41.6051512642664</v>
       </c>
       <c r="G14">
-        <v>2.073326945980447</v>
+        <v>3.631859353340928</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>10.80476812441713</v>
+        <v>20.01625154358472</v>
       </c>
       <c r="J14">
-        <v>4.273246440402581</v>
+        <v>7.954840659477071</v>
       </c>
       <c r="K14">
-        <v>15.48306484343156</v>
+        <v>10.38950196134404</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.34883068638698</v>
+        <v>21.36783370823199</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.42027510767096</v>
+        <v>10.97459709530476</v>
       </c>
       <c r="C15">
-        <v>9.982770425302544</v>
+        <v>5.915699322626187</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>31.46077676084391</v>
+        <v>25.20154685353043</v>
       </c>
       <c r="F15">
-        <v>40.98740802403908</v>
+        <v>41.57582148090941</v>
       </c>
       <c r="G15">
-        <v>2.073899623106907</v>
+        <v>3.632040193245685</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>10.84297536958029</v>
+        <v>20.03008228880871</v>
       </c>
       <c r="J15">
-        <v>4.280819753325612</v>
+        <v>7.957587936145075</v>
       </c>
       <c r="K15">
-        <v>15.40677158224601</v>
+        <v>10.35930800374317</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.36771774207033</v>
+        <v>21.38062672339782</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.884453675277</v>
+        <v>10.73543458259067</v>
       </c>
       <c r="C16">
-        <v>9.691246948372802</v>
+        <v>5.762845605858924</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>30.45666515022146</v>
+        <v>24.914459680526</v>
       </c>
       <c r="F16">
-        <v>39.88411031673314</v>
+        <v>41.41088213453592</v>
       </c>
       <c r="G16">
-        <v>2.077197312137962</v>
+        <v>3.633091919542875</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>11.06565974057154</v>
+        <v>20.11062910798976</v>
       </c>
       <c r="J16">
-        <v>4.324709866896606</v>
+        <v>7.973592397104552</v>
       </c>
       <c r="K16">
-        <v>14.96271289969263</v>
+        <v>10.18468739411761</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.48286484758572</v>
+        <v>21.45549395852364</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.54780257804338</v>
+        <v>10.58611274487536</v>
       </c>
       <c r="C17">
-        <v>9.508472077674286</v>
+        <v>5.666808121483443</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>29.82988958382314</v>
+        <v>24.73800910710263</v>
       </c>
       <c r="F17">
-        <v>39.20484265731832</v>
+        <v>41.31253317840422</v>
       </c>
       <c r="G17">
-        <v>2.079235246444753</v>
+        <v>3.633750897792717</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>11.20546606184166</v>
+        <v>20.16119232038041</v>
       </c>
       <c r="J17">
-        <v>4.352069428013801</v>
+        <v>7.983643808664814</v>
       </c>
       <c r="K17">
-        <v>14.68417456303865</v>
+        <v>10.07619128132198</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.55939796499378</v>
+        <v>21.50280887799917</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.35123983056447</v>
+        <v>10.49929286551192</v>
       </c>
       <c r="C18">
-        <v>9.401895698066543</v>
+        <v>5.610741904993526</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>29.46540786861926</v>
+        <v>24.63643306152781</v>
       </c>
       <c r="F18">
-        <v>38.81330254471682</v>
+        <v>41.25702159914253</v>
       </c>
       <c r="G18">
-        <v>2.080413166379692</v>
+        <v>3.634135000529625</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>11.28700411376006</v>
+        <v>20.19069796853252</v>
       </c>
       <c r="J18">
-        <v>4.367964394988338</v>
+        <v>7.989510956528696</v>
       </c>
       <c r="K18">
-        <v>14.52171457400934</v>
+        <v>10.01330263613941</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.60547858695204</v>
+        <v>21.53053191548566</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.28418283603211</v>
+        <v>10.46973902432339</v>
       </c>
       <c r="C19">
-        <v>9.36556165718649</v>
+        <v>5.591617153315385</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>29.34131676229558</v>
+        <v>24.60202974982786</v>
       </c>
       <c r="F19">
-        <v>38.68059446306616</v>
+        <v>41.23840900861234</v>
       </c>
       <c r="G19">
-        <v>2.080813003463422</v>
+        <v>3.634265924084665</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>11.31480038971368</v>
+        <v>20.20076075622218</v>
       </c>
       <c r="J19">
-        <v>4.37337327664605</v>
+        <v>7.99151222914268</v>
       </c>
       <c r="K19">
-        <v>14.46632152326427</v>
+        <v>9.99192832930669</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.62142498468172</v>
+        <v>21.54000577122289</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.58394265646838</v>
+        <v>10.60210549949337</v>
       </c>
       <c r="C20">
-        <v>9.528078693816799</v>
+        <v>5.677117289796239</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>29.89702229440816</v>
+        <v>24.75680231876703</v>
       </c>
       <c r="F20">
-        <v>39.27724040066909</v>
+        <v>41.32289359367001</v>
       </c>
       <c r="G20">
-        <v>2.079017715415124</v>
+        <v>3.633680223379052</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>11.19046593503556</v>
+        <v>20.15576600488876</v>
       </c>
       <c r="J20">
-        <v>4.349140530699202</v>
+        <v>7.982564937702488</v>
       </c>
       <c r="K20">
-        <v>14.71405850090833</v>
+        <v>10.08779148154919</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.55103528385071</v>
+        <v>21.49771945475269</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.55616807663674</v>
+        <v>11.03552166527853</v>
       </c>
       <c r="C21">
-        <v>10.05682281031527</v>
+        <v>5.954458648135329</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>31.72682012873355</v>
+        <v>25.27553586807952</v>
       </c>
       <c r="F21">
-        <v>41.27147304808561</v>
+        <v>41.61927067836469</v>
       </c>
       <c r="G21">
-        <v>2.073052602837262</v>
+        <v>3.631772907772324</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>10.78651480176019</v>
+        <v>20.00964210717042</v>
       </c>
       <c r="J21">
-        <v>4.269623558991866</v>
+        <v>7.953527876238938</v>
       </c>
       <c r="K21">
-        <v>15.5195284548374</v>
+        <v>10.40395198377612</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>12.339900088208</v>
+        <v>21.3617266539842</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.16573550456336</v>
+        <v>11.31000556950657</v>
       </c>
       <c r="C22">
-        <v>10.3895648883459</v>
+        <v>6.128245687494218</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>32.94504501654473</v>
+        <v>25.61304219695458</v>
       </c>
       <c r="F22">
-        <v>42.56642026346369</v>
+        <v>41.82207179539814</v>
       </c>
       <c r="G22">
-        <v>2.069199290000575</v>
+        <v>3.630571303626058</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>10.53366612721214</v>
+        <v>19.91790298818397</v>
       </c>
       <c r="J22">
-        <v>4.219093500579206</v>
+        <v>7.935311845353131</v>
       </c>
       <c r="K22">
-        <v>16.02595865904948</v>
+        <v>10.60586201238953</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.22256939198151</v>
+        <v>21.27739321646717</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.84274879584731</v>
+        <v>11.16433214961902</v>
       </c>
       <c r="C23">
-        <v>10.21314232970321</v>
+        <v>6.036180061013327</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>32.29867040006645</v>
+        <v>25.43308278154129</v>
       </c>
       <c r="F23">
-        <v>41.87608029775743</v>
+        <v>41.71301550642964</v>
       </c>
       <c r="G23">
-        <v>2.071252041282563</v>
+        <v>3.631208523333566</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>10.66753311858549</v>
+        <v>19.96652198457694</v>
       </c>
       <c r="J23">
-        <v>4.245929096362713</v>
+        <v>7.944964564605028</v>
       </c>
       <c r="K23">
-        <v>15.75749175602489</v>
+        <v>10.49854910538565</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>12.28318322723482</v>
+        <v>21.32198685905582</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.56761312865973</v>
+        <v>10.59487819969961</v>
       </c>
       <c r="C24">
-        <v>9.519219205198731</v>
+        <v>5.672459170531802</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>29.86668449457163</v>
+        <v>24.7483063112772</v>
       </c>
       <c r="F24">
-        <v>39.24451254651101</v>
+        <v>41.31820643646014</v>
       </c>
       <c r="G24">
-        <v>2.079116041554594</v>
+        <v>3.633712158933268</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>11.19724388611348</v>
+        <v>20.1582178833315</v>
       </c>
       <c r="J24">
-        <v>4.350464169671846</v>
+        <v>7.98305241968851</v>
       </c>
       <c r="K24">
-        <v>14.70055521365599</v>
+        <v>10.08254862358803</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.55480959585659</v>
+        <v>21.50001876005211</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.08005830038546</v>
+        <v>9.945295756806507</v>
       </c>
       <c r="C25">
-        <v>8.715322025061797</v>
+        <v>5.248564593333998</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>27.13530162903361</v>
+        <v>24.00683927787074</v>
       </c>
       <c r="F25">
-        <v>36.37489588480027</v>
+        <v>40.93286473376473</v>
       </c>
       <c r="G25">
-        <v>2.087821618913192</v>
+        <v>3.636606961733262</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.81125993638258</v>
+        <v>20.38117063762682</v>
       </c>
       <c r="J25">
-        <v>4.469274959714718</v>
+        <v>8.027420209491432</v>
       </c>
       <c r="K25">
-        <v>13.47442556954782</v>
+        <v>9.615593956018524</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.92550260060994</v>
+        <v>21.71149768604512</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_104/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_104/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.439655512935477</v>
+        <v>13.88715728124212</v>
       </c>
       <c r="C2">
-        <v>4.910019341749957</v>
+        <v>8.075642896355953</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>23.46257738199308</v>
+        <v>24.99368386315955</v>
       </c>
       <c r="F2">
-        <v>40.68532829646367</v>
+        <v>34.24380446027016</v>
       </c>
       <c r="G2">
-        <v>3.638907270510543</v>
+        <v>2.094453583934104</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>20.55930814898493</v>
+        <v>12.29566170708705</v>
       </c>
       <c r="J2">
-        <v>8.062935027975461</v>
+        <v>4.561887730706398</v>
       </c>
       <c r="K2">
-        <v>9.258557754030093</v>
+        <v>12.49770423597913</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.8838791473291</v>
+        <v>13.25453347047877</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.081829350803954</v>
+        <v>13.01744704885938</v>
       </c>
       <c r="C3">
-        <v>4.664613401182223</v>
+        <v>7.612515242014553</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>23.09693550480246</v>
+        <v>23.46248222743456</v>
       </c>
       <c r="F3">
-        <v>40.54071422970096</v>
+        <v>32.79465258546379</v>
       </c>
       <c r="G3">
-        <v>3.640572480825728</v>
+        <v>2.099100445176831</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>20.68878718183965</v>
+        <v>12.64252720538659</v>
       </c>
       <c r="J3">
-        <v>8.088791244318241</v>
+        <v>4.627839684803799</v>
       </c>
       <c r="K3">
-        <v>9.009781126830694</v>
+        <v>11.7900773840799</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.01107926560912</v>
+        <v>13.50788004408302</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.855420559057553</v>
+        <v>12.45318456806683</v>
       </c>
       <c r="C4">
-        <v>4.506290014138854</v>
+        <v>7.313708015589575</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>22.87475314712606</v>
+        <v>22.4840594219201</v>
       </c>
       <c r="F4">
-        <v>40.46349433230809</v>
+        <v>31.9052477205435</v>
       </c>
       <c r="G4">
-        <v>3.641647646974465</v>
+        <v>2.102032966402441</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>20.77261681874335</v>
+        <v>12.86428108093364</v>
       </c>
       <c r="J4">
-        <v>8.10555254767069</v>
+        <v>4.669906432560832</v>
       </c>
       <c r="K4">
-        <v>8.854211390313131</v>
+        <v>11.33334001691371</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.094291075222</v>
+        <v>13.67707363947218</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.761603321391672</v>
+        <v>12.21564284457366</v>
       </c>
       <c r="C5">
-        <v>4.439893593130865</v>
+        <v>7.188347049284789</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22.78490904697793</v>
+        <v>22.07596658192769</v>
       </c>
       <c r="F5">
-        <v>40.43495796752435</v>
+        <v>31.54339056415145</v>
       </c>
       <c r="G5">
-        <v>3.642099084810587</v>
+        <v>2.103248520020751</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>20.8078681155033</v>
+        <v>12.95680705157013</v>
       </c>
       <c r="J5">
-        <v>8.112606100719018</v>
+        <v>4.687444476061735</v>
       </c>
       <c r="K5">
-        <v>8.790194002216152</v>
+        <v>11.14168401854369</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.12948441686786</v>
+        <v>13.74927061749662</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.745935320322303</v>
+        <v>12.17574067871373</v>
       </c>
       <c r="C6">
-        <v>4.428756507259179</v>
+        <v>7.167315216124464</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22.77003588431531</v>
+        <v>22.00764529601888</v>
       </c>
       <c r="F6">
-        <v>40.43039711043534</v>
+        <v>31.48335490233012</v>
       </c>
       <c r="G6">
-        <v>3.642174850174194</v>
+        <v>2.103451617982215</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>20.81378744654505</v>
+        <v>12.97230012659496</v>
       </c>
       <c r="J6">
-        <v>8.113790833177605</v>
+        <v>4.690380555177692</v>
       </c>
       <c r="K6">
-        <v>8.779529093991986</v>
+        <v>11.10952783240382</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.13540575243602</v>
+        <v>13.76145017836951</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.854161413980329</v>
+        <v>12.45001175036517</v>
       </c>
       <c r="C7">
-        <v>4.505402110533137</v>
+        <v>7.312031848668061</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22.87353850743738</v>
+        <v>22.47859333200881</v>
       </c>
       <c r="F7">
-        <v>40.46309758713959</v>
+        <v>31.90036454706608</v>
       </c>
       <c r="G7">
-        <v>3.641653681320425</v>
+        <v>2.102049275922799</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>20.77308781455507</v>
+        <v>12.86552023108941</v>
       </c>
       <c r="J7">
-        <v>8.105646769986077</v>
+        <v>4.670141354817254</v>
       </c>
       <c r="K7">
-        <v>8.85335042600671</v>
+        <v>11.33077757664786</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.09476050821957</v>
+        <v>13.67803438258507</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.317742521162153</v>
+        <v>13.59356208270052</v>
       </c>
       <c r="C8">
-        <v>4.827013384287024</v>
+        <v>7.918973181191329</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>23.33608968966927</v>
+        <v>24.47378905804132</v>
       </c>
       <c r="F8">
-        <v>40.63307707708967</v>
+        <v>33.74433278394554</v>
       </c>
       <c r="G8">
-        <v>3.639470518251131</v>
+        <v>2.096039715149411</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>20.60305492494781</v>
+        <v>12.41340762203977</v>
       </c>
       <c r="J8">
-        <v>8.071666785345871</v>
+        <v>4.584301721715232</v>
       </c>
       <c r="K8">
-        <v>9.173415737357018</v>
+        <v>12.25836493185573</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.92667634118557</v>
+        <v>13.33894296493597</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.16858339745011</v>
+        <v>15.59624048388326</v>
       </c>
       <c r="C9">
-        <v>5.395516673681337</v>
+        <v>8.993542339572796</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>24.25662527660384</v>
+        <v>28.07574015682441</v>
       </c>
       <c r="F9">
-        <v>41.05712989660161</v>
+        <v>37.34506261767798</v>
       </c>
       <c r="G9">
-        <v>3.635605731454915</v>
+        <v>2.084856561254732</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>20.30390161862786</v>
+        <v>11.59916106366166</v>
       </c>
       <c r="J9">
-        <v>8.012034112518556</v>
+        <v>4.428452645316963</v>
       </c>
       <c r="K9">
-        <v>9.77511865052767</v>
+        <v>13.89895954587051</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.63766776754769</v>
+        <v>12.79125132082143</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.75234500536061</v>
+        <v>16.92247168795344</v>
       </c>
       <c r="C10">
-        <v>5.773691579611321</v>
+        <v>9.711906677303796</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>24.93457962370504</v>
+        <v>30.52764652433451</v>
       </c>
       <c r="F10">
-        <v>41.42224654864729</v>
+        <v>39.96150133986673</v>
       </c>
       <c r="G10">
-        <v>3.63301741243591</v>
+        <v>2.076965529659031</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>20.10491679464077</v>
+        <v>11.04986280082666</v>
       </c>
       <c r="J10">
-        <v>7.972457082477563</v>
+        <v>4.321609504368682</v>
       </c>
       <c r="K10">
-        <v>10.19700045143658</v>
+        <v>14.9941910077998</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.45016398502469</v>
+        <v>12.47441864562411</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.00794180813366</v>
+        <v>17.49467941960473</v>
       </c>
       <c r="C11">
-        <v>5.936921419160597</v>
+        <v>10.02330988759976</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>25.24199954107389</v>
+        <v>31.60432529994681</v>
       </c>
       <c r="F11">
-        <v>41.59953047231339</v>
+        <v>41.14272881318323</v>
       </c>
       <c r="G11">
-        <v>3.631893875934849</v>
+        <v>2.073436399858474</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>20.01889142133278</v>
+        <v>10.8120596658228</v>
       </c>
       <c r="J11">
-        <v>7.955365014122992</v>
+        <v>4.274692781336023</v>
       </c>
       <c r="K11">
-        <v>10.38373424028216</v>
+        <v>15.46850172826048</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.37027409908191</v>
+        <v>12.35241492922623</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.10322910367878</v>
+        <v>17.70692569686553</v>
       </c>
       <c r="C12">
-        <v>5.997451986701032</v>
+        <v>10.13903002269969</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>25.35816096357625</v>
+        <v>32.02745224801573</v>
       </c>
       <c r="F12">
-        <v>41.66822939411228</v>
+        <v>41.5885959431649</v>
       </c>
       <c r="G12">
-        <v>3.631476129585341</v>
+        <v>2.072107832889657</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>19.98696083657498</v>
+        <v>10.72390564912775</v>
       </c>
       <c r="J12">
-        <v>7.949023275919894</v>
+        <v>4.25717283573923</v>
       </c>
       <c r="K12">
-        <v>10.45364076970644</v>
+        <v>15.64468156013451</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.34080121873465</v>
+        <v>12.30972891232195</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.08277507325545</v>
+        <v>17.66141134124411</v>
       </c>
       <c r="C13">
-        <v>5.9844728246625</v>
+        <v>10.1142052966108</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>25.33315643475486</v>
+        <v>31.93664510277868</v>
       </c>
       <c r="F13">
-        <v>41.65336496400325</v>
+        <v>41.49263597476045</v>
       </c>
       <c r="G13">
-        <v>3.631565756330399</v>
+        <v>2.072393629501873</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>19.99380896959135</v>
+        <v>10.74280390610572</v>
       </c>
       <c r="J13">
-        <v>7.950383278744022</v>
+        <v>4.260935036832982</v>
       </c>
       <c r="K13">
-        <v>10.43862187297733</v>
+        <v>15.60689047654167</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.34711401738135</v>
+        <v>12.31876020750518</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.0158116114555</v>
+        <v>17.51222973455636</v>
       </c>
       <c r="C14">
-        <v>5.941927053551114</v>
+        <v>10.03287429057525</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>25.25156187516953</v>
+        <v>31.63928102238168</v>
       </c>
       <c r="F14">
-        <v>41.6051512642664</v>
+        <v>41.17943996354268</v>
       </c>
       <c r="G14">
-        <v>3.631859353340928</v>
+        <v>2.073326945980313</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>20.01625154358472</v>
+        <v>10.80476812441707</v>
       </c>
       <c r="J14">
-        <v>7.954840659477071</v>
+        <v>4.273246440402557</v>
       </c>
       <c r="K14">
-        <v>10.38950196134404</v>
+        <v>15.48306484343159</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.36783370823199</v>
+        <v>12.34883068638693</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.97459709530476</v>
+        <v>17.42027510767103</v>
       </c>
       <c r="C15">
-        <v>5.915699322626187</v>
+        <v>9.982770425302546</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>25.20154685353043</v>
+        <v>31.46077676084392</v>
       </c>
       <c r="F15">
-        <v>41.57582148090941</v>
+        <v>40.98740802403905</v>
       </c>
       <c r="G15">
-        <v>3.632040193245685</v>
+        <v>2.073899623106908</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>20.03008228880871</v>
+        <v>10.84297536958003</v>
       </c>
       <c r="J15">
-        <v>7.957587936145075</v>
+        <v>4.280819753325491</v>
       </c>
       <c r="K15">
-        <v>10.35930800374317</v>
+        <v>15.40677158224607</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.38062672339782</v>
+        <v>12.3677177420701</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.73543458259067</v>
+        <v>16.884453675277</v>
       </c>
       <c r="C16">
-        <v>5.762845605858924</v>
+        <v>9.691246948372786</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>24.914459680526</v>
+        <v>30.45666515022146</v>
       </c>
       <c r="F16">
-        <v>41.41088213453592</v>
+        <v>39.88411031673312</v>
       </c>
       <c r="G16">
-        <v>3.633091919542875</v>
+        <v>2.077197312137829</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>20.11062910798976</v>
+        <v>11.06565974057153</v>
       </c>
       <c r="J16">
-        <v>7.973592397104552</v>
+        <v>4.324709866896572</v>
       </c>
       <c r="K16">
-        <v>10.18468739411761</v>
+        <v>14.96271289969261</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.45549395852364</v>
+        <v>12.4828648475857</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.58611274487536</v>
+        <v>16.54780257804336</v>
       </c>
       <c r="C17">
-        <v>5.666808121483443</v>
+        <v>9.508472077674242</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>24.73800910710263</v>
+        <v>29.82988958382313</v>
       </c>
       <c r="F17">
-        <v>41.31253317840422</v>
+        <v>39.20484265731837</v>
       </c>
       <c r="G17">
-        <v>3.633750897792717</v>
+        <v>2.079235246444887</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>20.16119232038041</v>
+        <v>11.20546606184176</v>
       </c>
       <c r="J17">
-        <v>7.983643808664814</v>
+        <v>4.352069428013738</v>
       </c>
       <c r="K17">
-        <v>10.07619128132198</v>
+        <v>14.68417456303863</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.50280887799917</v>
+        <v>12.55939796499385</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.49929286551192</v>
+        <v>16.35123983056448</v>
       </c>
       <c r="C18">
-        <v>5.610741904993526</v>
+        <v>9.401895698066438</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>24.63643306152781</v>
+        <v>29.46540786861921</v>
       </c>
       <c r="F18">
-        <v>41.25702159914253</v>
+        <v>38.81330254471681</v>
       </c>
       <c r="G18">
-        <v>3.634135000529625</v>
+        <v>2.080413166379692</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>20.19069796853252</v>
+        <v>11.28700411376008</v>
       </c>
       <c r="J18">
-        <v>7.989510956528696</v>
+        <v>4.367964394988311</v>
       </c>
       <c r="K18">
-        <v>10.01330263613941</v>
+        <v>14.52171457400931</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.53053191548566</v>
+        <v>12.60547858695208</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.46973902432339</v>
+        <v>16.28418283603206</v>
       </c>
       <c r="C19">
-        <v>5.591617153315385</v>
+        <v>9.36556165718655</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>24.60202974982786</v>
+        <v>29.34131676229553</v>
       </c>
       <c r="F19">
-        <v>41.23840900861234</v>
+        <v>38.68059446306621</v>
       </c>
       <c r="G19">
-        <v>3.634265924084665</v>
+        <v>2.080813003463423</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>20.20076075622218</v>
+        <v>11.31480038971379</v>
       </c>
       <c r="J19">
-        <v>7.99151222914268</v>
+        <v>4.373373276646016</v>
       </c>
       <c r="K19">
-        <v>9.99192832930669</v>
+        <v>14.46632152326424</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.54000577122289</v>
+        <v>12.62142498468183</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.60210549949337</v>
+        <v>16.58394265646843</v>
       </c>
       <c r="C20">
-        <v>5.677117289796239</v>
+        <v>9.528078693816706</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>24.75680231876703</v>
+        <v>29.89702229440812</v>
       </c>
       <c r="F20">
-        <v>41.32289359367001</v>
+        <v>39.27724040066906</v>
       </c>
       <c r="G20">
-        <v>3.633680223379052</v>
+        <v>2.079017715415258</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>20.15576600488876</v>
+        <v>11.1904659350355</v>
       </c>
       <c r="J20">
-        <v>7.982564937702488</v>
+        <v>4.349140530699171</v>
       </c>
       <c r="K20">
-        <v>10.08779148154919</v>
+        <v>14.71405850090836</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.49771945475269</v>
+        <v>12.55103528385057</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.03552166527853</v>
+        <v>17.55616807663674</v>
       </c>
       <c r="C21">
-        <v>5.954458648135329</v>
+        <v>10.05682281031537</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>25.27553586807952</v>
+        <v>31.72682012873353</v>
       </c>
       <c r="F21">
-        <v>41.61927067836469</v>
+        <v>41.27147304808563</v>
       </c>
       <c r="G21">
-        <v>3.631772907772324</v>
+        <v>2.073052602837127</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>20.00964210717042</v>
+        <v>10.78651480176026</v>
       </c>
       <c r="J21">
-        <v>7.953527876238938</v>
+        <v>4.269623558991868</v>
       </c>
       <c r="K21">
-        <v>10.40395198377612</v>
+        <v>15.51952845483743</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.3617266539842</v>
+        <v>12.33990008820802</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.31000556950657</v>
+        <v>18.16573550456337</v>
       </c>
       <c r="C22">
-        <v>6.128245687494218</v>
+        <v>10.38956488834576</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>25.61304219695458</v>
+        <v>32.94504501654474</v>
       </c>
       <c r="F22">
-        <v>41.82207179539814</v>
+        <v>42.56642026346373</v>
       </c>
       <c r="G22">
-        <v>3.630571303626058</v>
+        <v>2.069199290000042</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>19.91790298818397</v>
+        <v>10.5336661272121</v>
       </c>
       <c r="J22">
-        <v>7.935311845353131</v>
+        <v>4.219093500579203</v>
       </c>
       <c r="K22">
-        <v>10.60586201238953</v>
+        <v>16.02595865904947</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.27739321646717</v>
+        <v>12.22256939198149</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.16433214961902</v>
+        <v>17.84274879584732</v>
       </c>
       <c r="C23">
-        <v>6.036180061013327</v>
+        <v>10.21314232970324</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>25.43308278154129</v>
+        <v>32.29867040006645</v>
       </c>
       <c r="F23">
-        <v>41.71301550642964</v>
+        <v>41.87608029775744</v>
       </c>
       <c r="G23">
-        <v>3.631208523333566</v>
+        <v>2.071252041282563</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>19.96652198457694</v>
+        <v>10.66753311858553</v>
       </c>
       <c r="J23">
-        <v>7.944964564605028</v>
+        <v>4.245929096362683</v>
       </c>
       <c r="K23">
-        <v>10.49854910538565</v>
+        <v>15.75749175602491</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.32198685905582</v>
+        <v>12.28318322723483</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.59487819969961</v>
+        <v>16.56761312865975</v>
       </c>
       <c r="C24">
-        <v>5.672459170531802</v>
+        <v>9.519219205198654</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>24.7483063112772</v>
+        <v>29.86668449457164</v>
       </c>
       <c r="F24">
-        <v>41.31820643646014</v>
+        <v>39.24451254651093</v>
       </c>
       <c r="G24">
-        <v>3.633712158933268</v>
+        <v>2.07911604155446</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>20.1582178833315</v>
+        <v>11.19724388611337</v>
       </c>
       <c r="J24">
-        <v>7.98305241968851</v>
+        <v>4.350464169671751</v>
       </c>
       <c r="K24">
-        <v>10.08254862358803</v>
+        <v>14.70055521365599</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.50001876005211</v>
+        <v>12.55480959585653</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.945295756806507</v>
+        <v>15.08005830038545</v>
       </c>
       <c r="C25">
-        <v>5.248564593333998</v>
+        <v>8.715322025061782</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>24.00683927787074</v>
+        <v>27.13530162903361</v>
       </c>
       <c r="F25">
-        <v>40.93286473376473</v>
+        <v>36.37489588480027</v>
       </c>
       <c r="G25">
-        <v>3.636606961733262</v>
+        <v>2.087821618913059</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>20.38117063762682</v>
+        <v>11.81125993638261</v>
       </c>
       <c r="J25">
-        <v>8.027420209491432</v>
+        <v>4.469274959714785</v>
       </c>
       <c r="K25">
-        <v>9.615593956018524</v>
+        <v>13.47442556954779</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.71149768604512</v>
+        <v>12.92550260060996</v>
       </c>
     </row>
   </sheetData>
